--- a/results/n_0117_all_9_cht_w_ct0.xlsx
+++ b/results/n_0117_all_9_cht_w_ct0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minjingshi/Desktop/logi2dial/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD576A1-99D7-FF40-8452-AD41FF3995A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46F5BF9-1DE3-6743-B6E0-15394772B997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="173" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
